--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Clcf1-Lifr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Clcf1-Lifr.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.200778</v>
+        <v>1.352356</v>
       </c>
       <c r="H2">
-        <v>3.602334</v>
+        <v>4.057068</v>
       </c>
       <c r="I2">
-        <v>0.07334464402956963</v>
+        <v>0.08465764667810434</v>
       </c>
       <c r="J2">
-        <v>0.08784648530804996</v>
+        <v>0.1020450778651008</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.93895166666667</v>
+        <v>23.80409633333333</v>
       </c>
       <c r="N2">
-        <v>86.816855</v>
+        <v>71.41228899999999</v>
       </c>
       <c r="O2">
-        <v>0.2389168411431201</v>
+        <v>0.2035379592047788</v>
       </c>
       <c r="P2">
-        <v>0.2499063428956389</v>
+        <v>0.2090753787995941</v>
       </c>
       <c r="Q2">
-        <v>34.74925650439667</v>
+        <v>32.19161250096133</v>
       </c>
       <c r="R2">
-        <v>312.74330853957</v>
+        <v>289.724512508652</v>
       </c>
       <c r="S2">
-        <v>0.01752327066631138</v>
+        <v>0.01723104463594058</v>
       </c>
       <c r="T2">
-        <v>0.02195339387957024</v>
+        <v>0.02133511330928003</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.200778</v>
+        <v>1.352356</v>
       </c>
       <c r="H3">
-        <v>3.602334</v>
+        <v>4.057068</v>
       </c>
       <c r="I3">
-        <v>0.07334464402956963</v>
+        <v>0.08465764667810434</v>
       </c>
       <c r="J3">
-        <v>0.08784648530804996</v>
+        <v>0.1020450778651008</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>107.117709</v>
       </c>
       <c r="O3">
-        <v>0.294784056215443</v>
+        <v>0.3053048738509329</v>
       </c>
       <c r="P3">
-        <v>0.3083432925040795</v>
+        <v>0.3136109470643028</v>
       </c>
       <c r="Q3">
-        <v>42.874862792534</v>
+        <v>48.287092157468</v>
       </c>
       <c r="R3">
-        <v>385.873765132806</v>
+        <v>434.583829417212</v>
       </c>
       <c r="S3">
-        <v>0.02162083166871431</v>
+        <v>0.0258463921395755</v>
       </c>
       <c r="T3">
-        <v>0.02708687451479538</v>
+        <v>0.03200245351252479</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.200778</v>
+        <v>1.352356</v>
       </c>
       <c r="H4">
-        <v>3.602334</v>
+        <v>4.057068</v>
       </c>
       <c r="I4">
-        <v>0.07334464402956963</v>
+        <v>0.08465764667810434</v>
       </c>
       <c r="J4">
-        <v>0.08784648530804996</v>
+        <v>0.1020450778651008</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.284198</v>
+        <v>33.79564933333334</v>
       </c>
       <c r="N4">
-        <v>57.852594</v>
+        <v>101.386948</v>
       </c>
       <c r="O4">
-        <v>0.1592082437265831</v>
+        <v>0.2889711669362822</v>
       </c>
       <c r="P4">
-        <v>0.1665313745074753</v>
+        <v>0.2968328680576918</v>
       </c>
       <c r="Q4">
-        <v>23.156040706044</v>
+        <v>45.70374914982934</v>
       </c>
       <c r="R4">
-        <v>208.404366354396</v>
+        <v>411.333742348464</v>
       </c>
       <c r="S4">
-        <v>0.0116770719626992</v>
+        <v>0.02446361895065129</v>
       </c>
       <c r="T4">
-        <v>0.0146291959440003</v>
+        <v>0.03029033313386836</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.200778</v>
+        <v>1.352356</v>
       </c>
       <c r="H5">
-        <v>3.602334</v>
+        <v>4.057068</v>
       </c>
       <c r="I5">
-        <v>0.07334464402956963</v>
+        <v>0.08465764667810434</v>
       </c>
       <c r="J5">
-        <v>0.08784648530804996</v>
+        <v>0.1020450778651008</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.9793095</v>
+        <v>9.2924895</v>
       </c>
       <c r="N5">
-        <v>31.958619</v>
+        <v>18.584979</v>
       </c>
       <c r="O5">
-        <v>0.1319234433010128</v>
+        <v>0.07945583492339121</v>
       </c>
       <c r="P5">
-        <v>0.09199436674232302</v>
+        <v>0.05441166469831967</v>
       </c>
       <c r="Q5">
-        <v>19.187603302791</v>
+        <v>12.566753930262</v>
       </c>
       <c r="R5">
-        <v>115.125619816746</v>
+        <v>75.400523581572</v>
       </c>
       <c r="S5">
-        <v>0.009675877988067896</v>
+        <v>0.006726543999458237</v>
       </c>
       <c r="T5">
-        <v>0.008081381786452839</v>
+        <v>0.005552442560909789</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.200778</v>
+        <v>1.352356</v>
       </c>
       <c r="H6">
-        <v>3.602334</v>
+        <v>4.057068</v>
       </c>
       <c r="I6">
-        <v>0.07334464402956963</v>
+        <v>0.08465764667810434</v>
       </c>
       <c r="J6">
-        <v>0.08784648530804996</v>
+        <v>0.1020450778651008</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.21726266666667</v>
+        <v>14.353493</v>
       </c>
       <c r="N6">
-        <v>63.651788</v>
+        <v>43.060479</v>
       </c>
       <c r="O6">
-        <v>0.1751674156138409</v>
+        <v>0.122730165084615</v>
       </c>
       <c r="P6">
-        <v>0.1832246233504832</v>
+        <v>0.1260691413800917</v>
       </c>
       <c r="Q6">
-        <v>25.47722223035467</v>
+        <v>19.411032379508</v>
       </c>
       <c r="R6">
-        <v>229.295000073192</v>
+        <v>174.699291415572</v>
       </c>
       <c r="S6">
-        <v>0.01284759174377683</v>
+        <v>0.01039004695247875</v>
       </c>
       <c r="T6">
-        <v>0.01609563918323121</v>
+        <v>0.01286473534851786</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>9.593439</v>
       </c>
       <c r="I7">
-        <v>0.1953254108237577</v>
+        <v>0.2001834746890973</v>
       </c>
       <c r="J7">
-        <v>0.2339455192570077</v>
+        <v>0.2412982059332244</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>28.93895166666667</v>
+        <v>23.80409633333333</v>
       </c>
       <c r="N7">
-        <v>86.816855</v>
+        <v>71.41228899999999</v>
       </c>
       <c r="O7">
-        <v>0.2389168411431201</v>
+        <v>0.2035379592047788</v>
       </c>
       <c r="P7">
-        <v>0.2499063428956389</v>
+        <v>0.2090753787995941</v>
       </c>
       <c r="Q7">
-        <v>92.54135584603834</v>
+        <v>76.12104870798565</v>
       </c>
       <c r="R7">
-        <v>832.872202614345</v>
+        <v>685.0894383718709</v>
       </c>
       <c r="S7">
-        <v>0.04666653014899439</v>
+        <v>0.04074493590474035</v>
       </c>
       <c r="T7">
-        <v>0.05846446915434005</v>
+        <v>0.05044951380915136</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>9.593439</v>
       </c>
       <c r="I8">
-        <v>0.1953254108237577</v>
+        <v>0.2001834746890973</v>
       </c>
       <c r="J8">
-        <v>0.2339455192570077</v>
+        <v>0.2412982059332244</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>107.117709</v>
       </c>
       <c r="O8">
-        <v>0.294784056215443</v>
+        <v>0.3053048738509329</v>
       </c>
       <c r="P8">
-        <v>0.3083432925040795</v>
+        <v>0.3136109470643028</v>
       </c>
       <c r="Q8">
         <v>114.180800790139</v>
@@ -948,10 +948,10 @@
         <v>1027.627207111251</v>
       </c>
       <c r="S8">
-        <v>0.05757881688457508</v>
+        <v>0.06111699048699627</v>
       </c>
       <c r="T8">
-        <v>0.07213553167428229</v>
+        <v>0.07567375888763568</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>9.593439</v>
       </c>
       <c r="I9">
-        <v>0.1953254108237577</v>
+        <v>0.2001834746890973</v>
       </c>
       <c r="J9">
-        <v>0.2339455192570077</v>
+        <v>0.2412982059332244</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.284198</v>
+        <v>33.79564933333334</v>
       </c>
       <c r="N9">
-        <v>57.852594</v>
+        <v>101.386948</v>
       </c>
       <c r="O9">
-        <v>0.1592082437265831</v>
+        <v>0.2889711669362822</v>
       </c>
       <c r="P9">
-        <v>0.1665313745074753</v>
+        <v>0.2968328680576918</v>
       </c>
       <c r="Q9">
-        <v>61.667259058974</v>
+        <v>108.0721667815747</v>
       </c>
       <c r="R9">
-        <v>555.0053315307659</v>
+        <v>972.6495010341721</v>
       </c>
       <c r="S9">
-        <v>0.03109741561242378</v>
+        <v>0.05784725228226816</v>
       </c>
       <c r="T9">
-        <v>0.03895926888173452</v>
+        <v>0.07162523852433454</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>9.593439</v>
       </c>
       <c r="I10">
-        <v>0.1953254108237577</v>
+        <v>0.2001834746890973</v>
       </c>
       <c r="J10">
-        <v>0.2339455192570077</v>
+        <v>0.2412982059332244</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.9793095</v>
+        <v>9.2924895</v>
       </c>
       <c r="N10">
-        <v>31.958619</v>
+        <v>18.584979</v>
       </c>
       <c r="O10">
-        <v>0.1319234433010128</v>
+        <v>0.07945583492339121</v>
       </c>
       <c r="P10">
-        <v>0.09199436674232302</v>
+        <v>0.05441166469831967</v>
       </c>
       <c r="Q10">
-        <v>51.0988436501235</v>
+        <v>29.7156437254635</v>
       </c>
       <c r="R10">
-        <v>306.593061900741</v>
+        <v>178.293862352781</v>
       </c>
       <c r="S10">
-        <v>0.02576800076005503</v>
+        <v>0.01590574511928778</v>
       </c>
       <c r="T10">
-        <v>0.02152166989625235</v>
+        <v>0.0131294370735447</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>9.593439</v>
       </c>
       <c r="I11">
-        <v>0.1953254108237577</v>
+        <v>0.2001834746890973</v>
       </c>
       <c r="J11">
-        <v>0.2339455192570077</v>
+        <v>0.2412982059332244</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.21726266666667</v>
+        <v>14.353493</v>
       </c>
       <c r="N11">
-        <v>63.651788</v>
+        <v>43.060479</v>
       </c>
       <c r="O11">
-        <v>0.1751674156138409</v>
+        <v>0.122730165084615</v>
       </c>
       <c r="P11">
-        <v>0.1832246233504832</v>
+        <v>0.1260691413800917</v>
       </c>
       <c r="Q11">
-        <v>67.84883837988133</v>
+        <v>45.899786510809</v>
       </c>
       <c r="R11">
-        <v>610.639545418932</v>
+        <v>413.098078597281</v>
       </c>
       <c r="S11">
-        <v>0.03421464741770937</v>
+        <v>0.02456855089580475</v>
       </c>
       <c r="T11">
-        <v>0.04286457965039844</v>
+        <v>0.03042025763855816</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.622028</v>
+        <v>2.438989</v>
       </c>
       <c r="H12">
-        <v>4.866084</v>
+        <v>7.316967</v>
       </c>
       <c r="I12">
-        <v>0.09907498827093329</v>
+        <v>0.1526810019061423</v>
       </c>
       <c r="J12">
-        <v>0.118664281716725</v>
+        <v>0.1840394263175705</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>28.93895166666667</v>
+        <v>23.80409633333333</v>
       </c>
       <c r="N12">
-        <v>86.816855</v>
+        <v>71.41228899999999</v>
       </c>
       <c r="O12">
-        <v>0.2389168411431201</v>
+        <v>0.2035379592047788</v>
       </c>
       <c r="P12">
-        <v>0.2499063428956389</v>
+        <v>0.2090753787995941</v>
       </c>
       <c r="Q12">
-        <v>46.93978989398001</v>
+        <v>58.05792911194033</v>
       </c>
       <c r="R12">
-        <v>422.45810904582</v>
+        <v>522.5213620074629</v>
       </c>
       <c r="S12">
-        <v>0.02367068323398306</v>
+        <v>0.03107637953731714</v>
       </c>
       <c r="T12">
-        <v>0.02965495667616458</v>
+        <v>0.03847811277140604</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.622028</v>
+        <v>2.438989</v>
       </c>
       <c r="H13">
-        <v>4.866084</v>
+        <v>7.316967</v>
       </c>
       <c r="I13">
-        <v>0.09907498827093329</v>
+        <v>0.1526810019061423</v>
       </c>
       <c r="J13">
-        <v>0.118664281716725</v>
+        <v>0.1840394263175705</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>107.117709</v>
       </c>
       <c r="O13">
-        <v>0.294784056215443</v>
+        <v>0.3053048738509329</v>
       </c>
       <c r="P13">
-        <v>0.3083432925040795</v>
+        <v>0.3136109470643028</v>
       </c>
       <c r="Q13">
-        <v>57.915974431284</v>
+        <v>87.086304652067</v>
       </c>
       <c r="R13">
-        <v>521.243769881556</v>
+        <v>783.7767418686029</v>
       </c>
       <c r="S13">
-        <v>0.02920572691200316</v>
+        <v>0.04661425402638882</v>
       </c>
       <c r="T13">
-        <v>0.03658933532716664</v>
+        <v>0.05771677878462426</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.622028</v>
+        <v>2.438989</v>
       </c>
       <c r="H14">
-        <v>4.866084</v>
+        <v>7.316967</v>
       </c>
       <c r="I14">
-        <v>0.09907498827093329</v>
+        <v>0.1526810019061423</v>
       </c>
       <c r="J14">
-        <v>0.118664281716725</v>
+        <v>0.1840394263175705</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.284198</v>
+        <v>33.79564933333334</v>
       </c>
       <c r="N14">
-        <v>57.852594</v>
+        <v>101.386948</v>
       </c>
       <c r="O14">
-        <v>0.1592082437265831</v>
+        <v>0.2889711669362822</v>
       </c>
       <c r="P14">
-        <v>0.1665313745074753</v>
+        <v>0.2968328680576918</v>
       </c>
       <c r="Q14">
-        <v>31.279509113544</v>
+        <v>82.42721697185733</v>
       </c>
       <c r="R14">
-        <v>281.515582021896</v>
+        <v>741.844952746716</v>
       </c>
       <c r="S14">
-        <v>0.01577355487984711</v>
+        <v>0.04412040728981868</v>
       </c>
       <c r="T14">
-        <v>0.01976132593922849</v>
+        <v>0.05462895074953669</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.622028</v>
+        <v>2.438989</v>
       </c>
       <c r="H15">
-        <v>4.866084</v>
+        <v>7.316967</v>
       </c>
       <c r="I15">
-        <v>0.09907498827093329</v>
+        <v>0.1526810019061423</v>
       </c>
       <c r="J15">
-        <v>0.118664281716725</v>
+        <v>0.1840394263175705</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>15.9793095</v>
+        <v>9.2924895</v>
       </c>
       <c r="N15">
-        <v>31.958619</v>
+        <v>18.584979</v>
       </c>
       <c r="O15">
-        <v>0.1319234433010128</v>
+        <v>0.07945583492339121</v>
       </c>
       <c r="P15">
-        <v>0.09199436674232302</v>
+        <v>0.05441166469831967</v>
       </c>
       <c r="Q15">
-        <v>25.918887429666</v>
+        <v>22.6642796731155</v>
       </c>
       <c r="R15">
-        <v>155.513324577996</v>
+        <v>135.985678038693</v>
       </c>
       <c r="S15">
-        <v>0.01307031359770898</v>
+        <v>0.01213139648339242</v>
       </c>
       <c r="T15">
-        <v>0.01091644545146274</v>
+        <v>0.01001389155606276</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.622028</v>
+        <v>2.438989</v>
       </c>
       <c r="H16">
-        <v>4.866084</v>
+        <v>7.316967</v>
       </c>
       <c r="I16">
-        <v>0.09907498827093329</v>
+        <v>0.1526810019061423</v>
       </c>
       <c r="J16">
-        <v>0.118664281716725</v>
+        <v>0.1840394263175705</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.21726266666667</v>
+        <v>14.353493</v>
       </c>
       <c r="N16">
-        <v>63.651788</v>
+        <v>43.060479</v>
       </c>
       <c r="O16">
-        <v>0.1751674156138409</v>
+        <v>0.122730165084615</v>
       </c>
       <c r="P16">
-        <v>0.1832246233504832</v>
+        <v>0.1260691413800917</v>
       </c>
       <c r="Q16">
-        <v>34.414994128688</v>
+        <v>35.008011538577</v>
       </c>
       <c r="R16">
-        <v>309.734947158192</v>
+        <v>315.072103847193</v>
       </c>
       <c r="S16">
-        <v>0.01735470964739098</v>
+        <v>0.01873856456922526</v>
       </c>
       <c r="T16">
-        <v>0.02174221832270257</v>
+        <v>0.02320169245594077</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.108010999999999</v>
+        <v>8.165625500000001</v>
       </c>
       <c r="H17">
-        <v>16.216022</v>
+        <v>16.331251</v>
       </c>
       <c r="I17">
-        <v>0.4952449000421683</v>
+        <v>0.5111691289015016</v>
       </c>
       <c r="J17">
-        <v>0.3954437701717871</v>
+        <v>0.4107704825084287</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>28.93895166666667</v>
+        <v>23.80409633333333</v>
       </c>
       <c r="N17">
-        <v>86.816855</v>
+        <v>71.41228899999999</v>
       </c>
       <c r="O17">
-        <v>0.2389168411431201</v>
+        <v>0.2035379592047788</v>
       </c>
       <c r="P17">
-        <v>0.2499063428956389</v>
+        <v>0.2090753787995941</v>
       </c>
       <c r="Q17">
-        <v>234.6373384418017</v>
+        <v>194.3753360239232</v>
       </c>
       <c r="R17">
-        <v>1407.82403065081</v>
+        <v>1166.252016143539</v>
       </c>
       <c r="S17">
-        <v>0.1183223471103151</v>
+        <v>0.1040423213050961</v>
       </c>
       <c r="T17">
-        <v>0.09882390642449486</v>
+        <v>0.08588199423014178</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.108010999999999</v>
+        <v>8.165625500000001</v>
       </c>
       <c r="H18">
-        <v>16.216022</v>
+        <v>16.331251</v>
       </c>
       <c r="I18">
-        <v>0.4952449000421683</v>
+        <v>0.5111691289015016</v>
       </c>
       <c r="J18">
-        <v>0.3954437701717871</v>
+        <v>0.4107704825084287</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>107.117709</v>
       </c>
       <c r="O18">
-        <v>0.294784056215443</v>
+        <v>0.3053048738509329</v>
       </c>
       <c r="P18">
-        <v>0.3083432925040795</v>
+        <v>0.3136109470643028</v>
       </c>
       <c r="Q18">
-        <v>289.503854288933</v>
+        <v>291.5610320373265</v>
       </c>
       <c r="R18">
-        <v>1737.023125733598</v>
+        <v>1749.366192223959</v>
       </c>
       <c r="S18">
-        <v>0.145990300454442</v>
+        <v>0.1560624264157642</v>
       </c>
       <c r="T18">
-        <v>0.1219324340949954</v>
+        <v>0.128822120045529</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.108010999999999</v>
+        <v>8.165625500000001</v>
       </c>
       <c r="H19">
-        <v>16.216022</v>
+        <v>16.331251</v>
       </c>
       <c r="I19">
-        <v>0.4952449000421683</v>
+        <v>0.5111691289015016</v>
       </c>
       <c r="J19">
-        <v>0.3954437701717871</v>
+        <v>0.4107704825084287</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>19.284198</v>
+        <v>33.79564933333334</v>
       </c>
       <c r="N19">
-        <v>57.852594</v>
+        <v>101.386948</v>
       </c>
       <c r="O19">
-        <v>0.1592082437265831</v>
+        <v>0.2889711669362822</v>
       </c>
       <c r="P19">
-        <v>0.1665313745074753</v>
+        <v>0.2968328680576918</v>
       </c>
       <c r="Q19">
-        <v>156.356489510178</v>
+        <v>275.9626159853247</v>
       </c>
       <c r="R19">
-        <v>938.1389370610678</v>
+        <v>1655.775695911948</v>
       </c>
       <c r="S19">
-        <v>0.07884707075026079</v>
+        <v>0.1477131396804698</v>
       </c>
       <c r="T19">
-        <v>0.06585379458712588</v>
+        <v>0.1219301804364188</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.108010999999999</v>
+        <v>8.165625500000001</v>
       </c>
       <c r="H20">
-        <v>16.216022</v>
+        <v>16.331251</v>
       </c>
       <c r="I20">
-        <v>0.4952449000421683</v>
+        <v>0.5111691289015016</v>
       </c>
       <c r="J20">
-        <v>0.3954437701717871</v>
+        <v>0.4107704825084287</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>15.9793095</v>
+        <v>9.2924895</v>
       </c>
       <c r="N20">
-        <v>31.958619</v>
+        <v>18.584979</v>
       </c>
       <c r="O20">
-        <v>0.1319234433010128</v>
+        <v>0.07945583492339121</v>
       </c>
       <c r="P20">
-        <v>0.09199436674232302</v>
+        <v>0.05441166469831967</v>
       </c>
       <c r="Q20">
-        <v>129.5604171984045</v>
+        <v>75.87898921968225</v>
       </c>
       <c r="R20">
-        <v>518.2416687936179</v>
+        <v>303.515956878729</v>
       </c>
       <c r="S20">
-        <v>0.06533441249082873</v>
+        <v>0.0406153699239314</v>
       </c>
       <c r="T20">
-        <v>0.03637859921915028</v>
+        <v>0.02235070576221561</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.108010999999999</v>
+        <v>8.165625500000001</v>
       </c>
       <c r="H21">
-        <v>16.216022</v>
+        <v>16.331251</v>
       </c>
       <c r="I21">
-        <v>0.4952449000421683</v>
+        <v>0.5111691289015016</v>
       </c>
       <c r="J21">
-        <v>0.3954437701717871</v>
+        <v>0.4107704825084287</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>21.21726266666667</v>
+        <v>14.353493</v>
       </c>
       <c r="N21">
-        <v>63.651788</v>
+        <v>43.060479</v>
       </c>
       <c r="O21">
-        <v>0.1751674156138409</v>
+        <v>0.122730165084615</v>
       </c>
       <c r="P21">
-        <v>0.1832246233504832</v>
+        <v>0.1260691413800917</v>
       </c>
       <c r="Q21">
-        <v>172.0297990912227</v>
+        <v>117.2052484548715</v>
       </c>
       <c r="R21">
-        <v>1032.178794547336</v>
+        <v>703.2314907292291</v>
       </c>
       <c r="S21">
-        <v>0.08675076923632156</v>
+        <v>0.06273587157624011</v>
       </c>
       <c r="T21">
-        <v>0.07245503584602073</v>
+        <v>0.0517854820341236</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.243090333333333</v>
+        <v>0.819627</v>
       </c>
       <c r="H22">
-        <v>6.729271</v>
+        <v>2.458881</v>
       </c>
       <c r="I22">
-        <v>0.1370100568335712</v>
+        <v>0.05130874782515448</v>
       </c>
       <c r="J22">
-        <v>0.1640999435464303</v>
+        <v>0.06184680737567548</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>28.93895166666667</v>
+        <v>23.80409633333333</v>
       </c>
       <c r="N22">
-        <v>86.816855</v>
+        <v>71.41228899999999</v>
       </c>
       <c r="O22">
-        <v>0.2389168411431201</v>
+        <v>0.2035379592047788</v>
       </c>
       <c r="P22">
-        <v>0.2499063428956389</v>
+        <v>0.2090753787995941</v>
       </c>
       <c r="Q22">
-        <v>64.91268274030057</v>
+        <v>19.510480065401</v>
       </c>
       <c r="R22">
-        <v>584.2141446627051</v>
+        <v>175.594320588609</v>
       </c>
       <c r="S22">
-        <v>0.03273400998351619</v>
+        <v>0.01044327782168457</v>
       </c>
       <c r="T22">
-        <v>0.0410096167610692</v>
+        <v>0.01293064467961488</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.243090333333333</v>
+        <v>0.819627</v>
       </c>
       <c r="H23">
-        <v>6.729271</v>
+        <v>2.458881</v>
       </c>
       <c r="I23">
-        <v>0.1370100568335712</v>
+        <v>0.05130874782515448</v>
       </c>
       <c r="J23">
-        <v>0.1640999435464303</v>
+        <v>0.06184680737567548</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>107.117709</v>
       </c>
       <c r="O23">
-        <v>0.294784056215443</v>
+        <v>0.3053048738509329</v>
       </c>
       <c r="P23">
-        <v>0.3083432925040795</v>
+        <v>0.3136109470643028</v>
       </c>
       <c r="Q23">
-        <v>80.09156586223767</v>
+        <v>29.265522158181</v>
       </c>
       <c r="R23">
-        <v>720.8240927601389</v>
+        <v>263.3896994236289</v>
       </c>
       <c r="S23">
-        <v>0.0403883802957085</v>
+        <v>0.01566481078220812</v>
       </c>
       <c r="T23">
-        <v>0.05059911689283991</v>
+        <v>0.0193958358339891</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.243090333333333</v>
+        <v>0.819627</v>
       </c>
       <c r="H24">
-        <v>6.729271</v>
+        <v>2.458881</v>
       </c>
       <c r="I24">
-        <v>0.1370100568335712</v>
+        <v>0.05130874782515448</v>
       </c>
       <c r="J24">
-        <v>0.1640999435464303</v>
+        <v>0.06184680737567548</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>19.284198</v>
+        <v>33.79564933333334</v>
       </c>
       <c r="N24">
-        <v>57.852594</v>
+        <v>101.386948</v>
       </c>
       <c r="O24">
-        <v>0.1592082437265831</v>
+        <v>0.2889711669362822</v>
       </c>
       <c r="P24">
-        <v>0.1665313745074753</v>
+        <v>0.2968328680576918</v>
       </c>
       <c r="Q24">
-        <v>43.256198119886</v>
+        <v>27.699826676132</v>
       </c>
       <c r="R24">
-        <v>389.3057830789739</v>
+        <v>249.298440085188</v>
       </c>
       <c r="S24">
-        <v>0.02181313052135221</v>
+        <v>0.01482674873307432</v>
       </c>
       <c r="T24">
-        <v>0.02732778915538615</v>
+        <v>0.01835816521353336</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.243090333333333</v>
+        <v>0.819627</v>
       </c>
       <c r="H25">
-        <v>6.729271</v>
+        <v>2.458881</v>
       </c>
       <c r="I25">
-        <v>0.1370100568335712</v>
+        <v>0.05130874782515448</v>
       </c>
       <c r="J25">
-        <v>0.1640999435464303</v>
+        <v>0.06184680737567548</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>15.9793095</v>
+        <v>9.2924895</v>
       </c>
       <c r="N25">
-        <v>31.958619</v>
+        <v>18.584979</v>
       </c>
       <c r="O25">
-        <v>0.1319234433010128</v>
+        <v>0.07945583492339121</v>
       </c>
       <c r="P25">
-        <v>0.09199436674232302</v>
+        <v>0.05441166469831967</v>
       </c>
       <c r="Q25">
-        <v>35.8430346727915</v>
+        <v>7.6163752914165</v>
       </c>
       <c r="R25">
-        <v>215.058208036749</v>
+        <v>45.698251748499</v>
       </c>
       <c r="S25">
-        <v>0.01807483846435217</v>
+        <v>0.004076779397321382</v>
       </c>
       <c r="T25">
-        <v>0.01509627038900481</v>
+        <v>0.003365187745586818</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.243090333333333</v>
+        <v>0.819627</v>
       </c>
       <c r="H26">
-        <v>6.729271</v>
+        <v>2.458881</v>
       </c>
       <c r="I26">
-        <v>0.1370100568335712</v>
+        <v>0.05130874782515448</v>
       </c>
       <c r="J26">
-        <v>0.1640999435464303</v>
+        <v>0.06184680737567548</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>21.21726266666667</v>
+        <v>14.353493</v>
       </c>
       <c r="N26">
-        <v>63.651788</v>
+        <v>43.060479</v>
       </c>
       <c r="O26">
-        <v>0.1751674156138409</v>
+        <v>0.122730165084615</v>
       </c>
       <c r="P26">
-        <v>0.1832246233504832</v>
+        <v>0.1260691413800917</v>
       </c>
       <c r="Q26">
-        <v>47.59223678739422</v>
+        <v>11.764510407111</v>
       </c>
       <c r="R26">
-        <v>428.330131086548</v>
+        <v>105.880593663999</v>
       </c>
       <c r="S26">
-        <v>0.02399969756864213</v>
+        <v>0.006297131090866089</v>
       </c>
       <c r="T26">
-        <v>0.03006715034813025</v>
+        <v>0.007796973902951332</v>
       </c>
     </row>
   </sheetData>
